--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints0.200000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints0.200000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>1.358540260055712e-98</v>
+        <v>7.188136008415981e-99</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>1.299938109354158e-98</v>
+        <v>6.905593998429532e-99</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>1.243793594489115e-98</v>
+        <v>6.635764127940972e-99</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>1.190048285987182e-98</v>
+        <v>6.378330218291711e-99</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>1.138643754374957e-98</v>
+        <v>6.132976090823163e-99</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>1.089521570179038e-98</v>
+        <v>5.899385566876734e-99</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>1.042623303926024e-98</v>
+        <v>5.677242467793844e-99</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>9.978905261425118e-99</v>
+        <v>5.466230614915895e-99</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>9.552648073551006e-99</v>
+        <v>5.266033829584306e-99</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>9.146877180903886e-99</v>
+        <v>5.076335933140488e-99</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>8.761008288749918e-99</v>
+        <v>4.896820746925933e-99</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>8.394457102354714e-99</v>
+        <v>4.727172092281883e-99</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>8.046639326984448e-99</v>
+        <v>4.567073790549839e-99</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>7.716970667905099e-99</v>
+        <v>4.416209663071211e-99</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>7.40486683038265e-99</v>
+        <v>4.274263531187408e-99</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>7.109743519683087e-99</v>
+        <v>4.140919216239849e-99</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>6.831016441072386e-99</v>
+        <v>4.015860539569938e-99</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>6.568101299816533e-99</v>
+        <v>3.898771322519092e-99</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>6.320413801181507e-99</v>
+        <v>3.78933538642872e-99</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>6.087369650433293e-99</v>
+        <v>3.687236552640236e-99</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>5.868384552837874e-99</v>
+        <v>3.592158642495049e-99</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>5.662874213661229e-99</v>
+        <v>3.503785477334572e-99</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>5.470254338169342e-99</v>
+        <v>3.421800878500218e-99</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>5.289940631628194e-99</v>
+        <v>3.345888667333395e-99</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>5.121348799303766e-99</v>
+        <v>3.275732665175519e-99</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>4.963894546462044e-99</v>
+        <v>3.211016693368e-99</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>4.816993578369005e-99</v>
+        <v>3.151424573252248e-99</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>4.680061600290636e-99</v>
+        <v>3.096640126169677e-99</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>4.552514317492973e-99</v>
+        <v>3.04634717346172e-99</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>4.433767435241881e-99</v>
+        <v>3.000229536469742e-99</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>4.323236658803402e-99</v>
+        <v>2.95797103653518e-99</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>4.220337693443518e-99</v>
+        <v>2.919255494999443e-99</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>4.124486244428213e-99</v>
+        <v>2.883766733203947e-99</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>4.03509801702347e-99</v>
+        <v>2.8511885724901e-99</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>3.951588716495267e-99</v>
+        <v>2.821204834199316e-99</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>3.873374048109591e-99</v>
+        <v>2.793499339673005e-99</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>3.79986971713242e-99</v>
+        <v>2.767755910252581e-99</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>3.730491428829737e-99</v>
+        <v>2.743658367279453e-99</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>3.664654888467525e-99</v>
+        <v>2.720890532095034e-99</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>3.601775801311766e-99</v>
+        <v>2.699136226040736e-99</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>3.541269872628442e-99</v>
+        <v>2.67807927045797e-99</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>3.482552807683534e-99</v>
+        <v>2.657403486688148e-99</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>3.425040311743026e-99</v>
+        <v>2.636792696072682e-99</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>3.368148090072897e-99</v>
+        <v>2.615930719952982e-99</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>3.311291847939132e-99</v>
+        <v>2.594501379670462e-99</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>3.253887290607713e-99</v>
+        <v>2.572188496566533e-99</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>3.195350123344621e-99</v>
+        <v>2.548675891982607e-99</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>3.135098092719244e-99</v>
+        <v>2.52364887189953e-99</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>3.073046356128601e-99</v>
+        <v>2.497154509065854e-99</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>3.010253429094191e-99</v>
+        <v>2.470071440301509e-99</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>2.947937870939791e-99</v>
+        <v>2.443394702242891e-99</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>2.887318240989184e-99</v>
+        <v>2.418119331526394e-99</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>2.82961309856615e-99</v>
+        <v>2.395240364788414e-99</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>2.776041002994473e-99</v>
+        <v>2.375752838665347e-99</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>2.727820513597932e-99</v>
+        <v>2.360651789793587e-99</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>2.686170189700306e-99</v>
+        <v>2.35093225480953e-99</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>2.652308590625379e-99</v>
+        <v>2.347589270349571e-99</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>2.627454275696932e-99</v>
+        <v>2.351617873050105e-99</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>2.612825804238745e-99</v>
+        <v>2.364013099547529e-99</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>2.609641735574599e-99</v>
+        <v>2.385769986478236e-99</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>2.619120629028276e-99</v>
+        <v>2.417883570478622e-99</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>2.642481043923555e-99</v>
+        <v>2.461348888185082e-99</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>2.68094153958422e-99</v>
+        <v>2.517160976234013e-99</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>2.735720675334049e-99</v>
+        <v>2.586314871261808e-99</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>2.808037010496826e-99</v>
+        <v>2.669805609904864e-99</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>2.899109104396281e-99</v>
+        <v>2.768628228799523e-99</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>3.009980870743712e-99</v>
+        <v>2.883641716841381e-99</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>3.139824717119843e-99</v>
+        <v>3.014247172416249e-99</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>3.286676968963033e-99</v>
+        <v>3.158960693670524e-99</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>3.448557978763818e-99</v>
+        <v>3.316285935933205e-99</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>3.623488099012735e-99</v>
+        <v>3.484726554533293e-99</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>3.809487682200321e-99</v>
+        <v>3.662786204799785e-99</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>4.004577080817111e-99</v>
+        <v>3.848968542061682e-99</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>4.206776647353639e-99</v>
+        <v>4.041777221647983e-99</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>4.414106734300444e-99</v>
+        <v>4.239715898887685e-99</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>4.624587694148063e-99</v>
+        <v>4.44128822910979e-99</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>4.836239879387028e-99</v>
+        <v>4.644997867643293e-99</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>5.047083642507879e-99</v>
+        <v>4.849348469817199e-99</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>5.255139336001151e-99</v>
+        <v>5.052843690960504e-99</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>5.458427312357379e-99</v>
+        <v>5.253987186402205e-99</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>5.654917332472388e-99</v>
+        <v>5.451189990049225e-99</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>5.842006909927048e-99</v>
+        <v>5.64181548430845e-99</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>6.016731769650201e-99</v>
+        <v>5.822564700861644e-99</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>6.176121930807844e-99</v>
+        <v>5.990128225468267e-99</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>6.317207412565923e-99</v>
+        <v>6.141196643887718e-99</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>6.437018234090578e-99</v>
+        <v>6.2724605418796e-99</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>6.532584414547737e-99</v>
+        <v>6.3806105052033e-99</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>6.600935973103403e-99</v>
+        <v>6.462337119618275e-99</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>6.63910292892358e-99</v>
+        <v>6.514330970883988e-99</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>6.644115301174273e-99</v>
+        <v>6.5332826447599e-99</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>6.613003109021484e-99</v>
+        <v>6.515882727005472e-99</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>6.542796371631214e-99</v>
+        <v>6.458821803380163e-99</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>6.430525108169469e-99</v>
+        <v>6.358790459643436e-99</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>6.27321933780225e-99</v>
+        <v>6.212479281554751e-99</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>6.068346299058789e-99</v>
+        <v>6.01703927472966e-99</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>5.818598225048895e-99</v>
+        <v>5.775123697097326e-99</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>5.530107146094111e-99</v>
+        <v>5.493008132289781e-99</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>5.209065595831024e-99</v>
+        <v>5.177031877786039e-99</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>4.861666107896226e-99</v>
+        <v>4.83353423106512e-99</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>4.494101215926311e-99</v>
+        <v>4.468854489606047e-99</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>4.112563453557872e-99</v>
+        <v>4.089331950887838e-99</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>3.723245354427498e-99</v>
+        <v>3.701305912389512e-99</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>3.332339452171972e-99</v>
+        <v>3.311115671590278e-99</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>2.946038280427503e-99</v>
+        <v>2.925100525968774e-99</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>2.570534372830875e-99</v>
+        <v>2.549599773004211e-99</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>2.212020263018679e-99</v>
+        <v>2.190952710175607e-99</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>1.876688484627506e-99</v>
+        <v>1.855498634961981e-99</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>1.570731571293951e-99</v>
+        <v>1.549576844842355e-99</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>1.300342056654603e-99</v>
+        <v>1.279526637295747e-99</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>1.071236805733158e-99</v>
+        <v>1.051196064815888e-99</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>8.824516499481352e-100</v>
+        <v>8.635333673671611e-100</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>7.280937775176213e-100</v>
+        <v>7.10396747037074e-100</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>6.021553851488411e-100</v>
+        <v>5.855256488593149e-100</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>4.989375761981151e-100</v>
+        <v>4.830113839071287e-100</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>4.14524446633448e-100</v>
+        <v>3.989762151632446e-100</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>3.456384116812988e-100</v>
+        <v>3.302694953965878e-100</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>2.890026971805147e-100</v>
+        <v>2.737415007196612e-100</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>2.413530662319843e-100</v>
+        <v>2.262543904408356e-100</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>2.003913429863062e-100</v>
+        <v>1.855859857279911e-100</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>1.654546625431108e-100</v>
+        <v>1.510641048893698e-100</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>1.360382852159872e-100</v>
+        <v>1.221664420899127e-100</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>1.116374713185349e-100</v>
+        <v>9.837069149457107e-101</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>9.174748116431972e-101</v>
+        <v>7.915454726826309e-101</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>7.586357506694353e-101</v>
+        <v>6.399570357594239e-101</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>6.348101333999543e-101</v>
+        <v>5.237185458254996e-101</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>5.409505629706443e-101</v>
+        <v>4.376069445302677e-101</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>4.720096425173949e-101</v>
+        <v>3.763991735231375e-101</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>4.229399751760966e-101</v>
+        <v>3.348721744535187e-101</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>3.886941640826397e-101</v>
+        <v>3.078028889708208e-101</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>3.642248123729142e-101</v>
+        <v>2.899682587244536e-101</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>3.444845231828105e-101</v>
+        <v>2.761452253638265e-101</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>3.244270580042495e-101</v>
+        <v>2.611119747633176e-101</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>3.006089154806152e-101</v>
+        <v>2.413682408607858e-101</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>2.743700800545037e-101</v>
+        <v>2.185518432164299e-101</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>2.479390268788426e-101</v>
+        <v>1.952549559210064e-101</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>2.235442311065597e-101</v>
+        <v>1.740697530652721e-101</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>2.03348225801904e-101</v>
+        <v>1.575091076484945e-101</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>1.881316129803422e-101</v>
+        <v>1.464240005047527e-101</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>1.773640149876073e-101</v>
+        <v>1.400888455013652e-101</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>1.704633147154991e-101</v>
+        <v>1.37715835316538e-101</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>1.668473950558086e-101</v>
+        <v>1.38517162628475e-101</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>1.659341389003373e-101</v>
+        <v>1.417050201153841e-101</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>1.671414291408828e-101</v>
+        <v>1.464916004554711e-101</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>1.698871486692422e-101</v>
+        <v>1.520890963269418e-101</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>1.73589180377213e-101</v>
+        <v>1.57709700408002e-101</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>1.776654735986442e-101</v>
+        <v>1.62565716854077e-101</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>1.816796850868072e-101</v>
+        <v>1.661139193627654e-101</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>1.856501345548936e-101</v>
+        <v>1.685739202441111e-101</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>1.896835760869346e-101</v>
+        <v>1.703137079871969e-101</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>1.938867637669615e-101</v>
+        <v>1.717012710811059e-101</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>1.983664516790052e-101</v>
+        <v>1.731045980149208e-101</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>2.03229393907097e-101</v>
+        <v>1.748916772777247e-101</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>2.08582344535268e-101</v>
+        <v>1.774304973586004e-101</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>2.145320576475495e-101</v>
+        <v>1.810890467466308e-101</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>2.211852873279724e-101</v>
+        <v>1.862353139308988e-101</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>2.286474434026951e-101</v>
+        <v>1.931977028956127e-101</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>2.370149990715362e-101</v>
+        <v>2.020414598365723e-101</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>2.46380781906963e-101</v>
+        <v>2.127244777723575e-101</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>2.568376087273797e-101</v>
+        <v>2.252043330455089e-101</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>2.684782963511846e-101</v>
+        <v>2.394386019985599e-101</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>2.813956615967934e-101</v>
+        <v>2.553848609740651e-101</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>2.956825212826046e-101</v>
+        <v>2.730006863145585e-101</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>3.114316922270228e-101</v>
+        <v>2.92243654362581e-101</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>3.287359912484521e-101</v>
+        <v>3.130713414606731e-101</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>3.47688235165297e-101</v>
+        <v>3.354413239513759e-101</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>3.683812407959615e-101</v>
+        <v>3.593111781772296e-101</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>3.909078249588497e-101</v>
+        <v>3.846384804807752e-101</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>4.153608044723661e-101</v>
+        <v>4.113808072045533e-101</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>4.418328141799504e-101</v>
+        <v>4.394955935038937e-101</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>4.701647027482555e-101</v>
+        <v>4.687449235522833e-101</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>4.994458446549215e-101</v>
+        <v>4.983078422852045e-101</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>5.286260346100256e-101</v>
+        <v>5.272551001916898e-101</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>5.566550673236453e-101</v>
+        <v>5.54657447760772e-101</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>5.824827375058582e-101</v>
+        <v>5.795856354814839e-101</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>6.050588398667417e-101</v>
+        <v>6.011104138428584e-101</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>6.233331691163733e-101</v>
+        <v>6.183025333339279e-101</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>6.362555199648257e-101</v>
+        <v>6.302327444437212e-101</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>6.427756871221893e-101</v>
+        <v>6.359717976612825e-101</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>6.41861869679673e-101</v>
+        <v>6.34607121128255e-101</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>6.332835369942364e-101</v>
+        <v>6.259522367920722e-101</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>6.179035867723464e-101</v>
+        <v>6.108115077502637e-101</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>5.966635286814243e-101</v>
+        <v>5.900605335612009e-101</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>5.705048723888909e-101</v>
+        <v>5.645749137832554e-101</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>5.403691275621676e-101</v>
+        <v>5.352302479747983e-101</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>5.071978038686752e-101</v>
+        <v>5.029021356942007e-101</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>4.71932410975835e-101</v>
+        <v>4.684661764998346e-101</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>4.355144585510679e-101</v>
+        <v>4.327979699500709e-101</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>3.988852020575345e-101</v>
+        <v>3.967728971272786e-101</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>3.628243563410677e-101</v>
+        <v>3.611275029344898e-101</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>3.27673414367454e-101</v>
+        <v>3.262217022201159e-101</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>2.937002741342851e-101</v>
+        <v>2.923521585935207e-101</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>2.611728336391525e-101</v>
+        <v>2.598155356640674e-101</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>2.303589908796484e-101</v>
+        <v>2.2890849704112e-101</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>2.015266438533644e-101</v>
+        <v>1.999277063340418e-101</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>1.749436905578925e-101</v>
+        <v>1.731698271521966e-101</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>1.508780289908244e-101</v>
+        <v>1.489315231049479e-101</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>1.295975571497615e-101</v>
+        <v>1.275094578016688e-101</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>1.113054573880814e-101</v>
+        <v>1.091313901730292e-101</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>9.58342658208869e-102</v>
+        <v>9.363044103293269e-102</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>8.288479464455149e-102</v>
+        <v>8.069948080595797e-102</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>7.215769799377683e-102</v>
+        <v>7.003121162370236e-102</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>6.335363000326459e-102</v>
+        <v>6.131833561776307e-102</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>5.617324480771639e-102</v>
+        <v>5.425355491973741e-102</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>5.031719654183393e-102</v>
+        <v>4.852957166122259e-102</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>4.548613934031882e-102</v>
+        <v>4.383908797381589e-102</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>4.138072733787269e-102</v>
+        <v>3.98748059891145e-102</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>3.770585294094302e-102</v>
+        <v>3.633379026501118e-102</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>3.429494739126806e-102</v>
+        <v>3.304540956939043e-102</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>3.113004633367338e-102</v>
+        <v>2.999199024212117e-102</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>2.820146328748821e-102</v>
+        <v>2.716437898693069e-102</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>2.549951177204166e-102</v>
+        <v>2.455342250754624e-102</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>2.301450530666293e-102</v>
+        <v>2.214996750769509e-102</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>2.073675741068119e-102</v>
+        <v>1.99448606911045e-102</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>1.865658160342655e-102</v>
+        <v>1.792894876150269e-102</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>1.676429140422618e-102</v>
+        <v>1.609307842261494e-102</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>1.505020033241029e-102</v>
+        <v>1.442809637816956e-102</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>1.350462190730807e-102</v>
+        <v>1.292484933189381e-102</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>1.211786964824867e-102</v>
+        <v>1.157418398751496e-102</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>1.088025707456126e-102</v>
+        <v>1.036694704876026e-102</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>9.782097705575023e-103</v>
+        <v>9.293985219356992e-103</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>8.813705060619111e-103</v>
+        <v>8.346145203032411e-103</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>7.965392659022698e-103</v>
+        <v>7.514273703513788e-103</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>7.227474020114949e-103</v>
+        <v>6.789217424528382e-103</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>6.590262663225037e-103</v>
+        <v>6.161823069803464e-103</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>6.044072107682125e-103</v>
+        <v>5.622937343066295e-103</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>5.579215872815385e-103</v>
+        <v>5.163406948044142e-103</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>5.186007477953983e-103</v>
+        <v>4.774078588464272e-103</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>4.854760442427087e-103</v>
+        <v>4.445798968053945e-103</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>4.575788285563866e-103</v>
+        <v>4.16941479054043e-103</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>4.339404526693488e-103</v>
+        <v>3.935772759650991e-103</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>4.135922685145121e-103</v>
+        <v>3.735719579112894e-103</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>3.955656280247932e-103</v>
+        <v>3.560101952653402e-103</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>3.78891883133109e-103</v>
+        <v>3.399766583999782e-103</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>3.626023857723843e-103</v>
+        <v>3.245560176879373e-103</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>3.457352176067804e-103</v>
+        <v>3.088391571300204e-103</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>3.27771534630668e-103</v>
+        <v>2.923260556816708e-103</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>3.089028565912877e-103</v>
+        <v>2.751725782466811e-103</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>2.893846536555604e-103</v>
+        <v>2.575936357900895e-103</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>2.69472395990407e-103</v>
+        <v>2.398041392769348e-103</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>2.494215537627483e-103</v>
+        <v>2.220189996722557e-103</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>2.294875971395049e-103</v>
+        <v>2.044531279410906e-103</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>2.099259962875979e-103</v>
+        <v>1.873214350484782e-103</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>1.909922213739479e-103</v>
+        <v>1.708388319594571e-103</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>1.729417425654758e-103</v>
+        <v>1.552202296390659e-103</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>1.560300300291024e-103</v>
+        <v>1.406805390523431e-103</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>1.405125539317485e-103</v>
+        <v>1.274346711643275e-103</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>1.26644784440335e-103</v>
+        <v>1.156975369400575e-103</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>1.146821917217825e-103</v>
+        <v>1.056840473445718e-103</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>1.048779214280912e-103</v>
+        <v>9.760706819369426e-104</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>9.731309637491064e-104</v>
+        <v>9.152811657860632e-104</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>9.178158277482304e-104</v>
+        <v>8.725597616601041e-104</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>8.804995867688892e-104</v>
+        <v>8.457542201518038e-104</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>8.588480213017729e-104</v>
+        <v>8.327122918539665e-104</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>8.505269118375399e-104</v>
+        <v>8.312817273593716e-104</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>8.532020388668486e-104</v>
+        <v>8.393102772607987e-104</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>8.645391828803574e-104</v>
+        <v>8.546456921510269e-104</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>8.822041243687247e-104</v>
+        <v>8.751357226228355e-104</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>9.038626438226088e-104</v>
+        <v>8.98628119269004e-104</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>9.271805217326685e-104</v>
+        <v>9.229706326823118e-104</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>9.498235385895617e-104</v>
+        <v>9.46011013455538e-104</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>9.694574748839468e-104</v>
+        <v>9.65597012181462e-104</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>9.837481111064825e-104</v>
+        <v>9.795763794528635e-104</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>9.904159944012865e-104</v>
+        <v>9.858483548558125e-104</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>9.885866515362228e-104</v>
+        <v>9.836330727517915e-104</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>9.78876420153127e-104</v>
+        <v>9.735522567219914e-104</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>9.619735897211357e-104</v>
+        <v>9.562952760210072e-104</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>9.385664497093863e-104</v>
+        <v>9.325514999034318e-104</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>9.093432895870146e-104</v>
+        <v>9.03010297623858e-104</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>8.749923988231581e-104</v>
+        <v>8.683610384368805e-104</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>8.36202066886954e-104</v>
+        <v>8.292930915970927e-104</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>7.936605832475386e-104</v>
+        <v>7.864958263590876e-104</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>7.48056237374049e-104</v>
+        <v>7.406586119774591e-104</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>7.00077318735622e-104</v>
+        <v>6.924708177068007e-104</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>6.504121168013944e-104</v>
+        <v>6.426218128017062e-104</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>5.997489210405029e-104</v>
+        <v>5.918009665167687e-104</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>5.487760209220849e-104</v>
+        <v>5.406976481065822e-104</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>4.981817059152769e-104</v>
+        <v>4.900012268257401e-104</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>4.486542654892629e-104</v>
+        <v>4.404010719288831e-104</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>4.008819891130381e-104</v>
+        <v>3.925865526704632e-104</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>3.555531662559237e-104</v>
+        <v>3.472470383052582e-104</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>3.13356086386921e-104</v>
+        <v>3.050718980877258e-104</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>2.749280384066839e-104</v>
+        <v>2.666992994553229e-104</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>2.403741816708617e-104</v>
+        <v>2.3223318051303e-104</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>2.094831718835991e-104</v>
+        <v>2.014597267883648e-104</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>1.820394730363315e-104</v>
+        <v>1.741609155556037e-104</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>1.578275491204944e-104</v>
+        <v>1.501187240890229e-104</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>1.366318641275234e-104</v>
+        <v>1.29115129662899e-104</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>1.18236882048854e-104</v>
+        <v>1.109321095515084e-104</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>1.024270668759218e-104</v>
+        <v>9.535164102912741e-105</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>8.898688260016213e-105</v>
+        <v>8.215570137003254e-105</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>7.770079321301074e-105</v>
+        <v>7.112626784850021e-105</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>6.835326270590305e-105</v>
+        <v>6.204531773880681e-105</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>6.072875507027462e-105</v>
+        <v>5.469482831522877e-105</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>5.461173429756097e-105</v>
+        <v>4.885677685204248e-105</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>4.978666437919764e-105</v>
+        <v>4.431314062352437e-105</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>4.603800930662017e-105</v>
+        <v>4.084589690395087e-105</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>4.315023307126406e-105</v>
+        <v>3.823702296759836e-105</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>4.090779966456485e-105</v>
+        <v>3.626849608874329e-105</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>3.90951730779581e-105</v>
+        <v>3.472229354166208e-105</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>3.749709149835382e-105</v>
+        <v>3.33806703485357e-105</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>3.595872981394867e-105</v>
+        <v>3.208710124048424e-105</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>3.446125625522175e-105</v>
+        <v>3.082281619758992e-105</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>3.300441957138618e-105</v>
+        <v>2.958786644471864e-105</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>3.158796851165504e-105</v>
+        <v>2.838230320673627e-105</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>3.021165182524146e-105</v>
+        <v>2.720617770850868e-105</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>2.887521826135853e-105</v>
+        <v>2.605954117490179e-105</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>2.757841656921935e-105</v>
+        <v>2.494244483078144e-105</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>2.632099549803701e-105</v>
+        <v>2.385493990101351e-105</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>2.510270379702462e-105</v>
+        <v>2.279707761046392e-105</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>2.392329021539528e-105</v>
+        <v>2.17689091839985e-105</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>2.27825035023621e-105</v>
+        <v>2.077048584648317e-105</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>2.168009240713816e-105</v>
+        <v>1.980185882278379e-105</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>2.061580567893656e-105</v>
+        <v>1.886307933776623e-105</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>1.958939206697042e-105</v>
+        <v>1.79541986162964e-105</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>1.860060032045377e-105</v>
+        <v>1.707526788324099e-105</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>1.76491791885969e-105</v>
+        <v>1.622633836346339e-105</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>1.673487742061659e-105</v>
+        <v>1.540746128183276e-105</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>1.585744376572322e-105</v>
+        <v>1.461868786321255e-105</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>1.501662697313081e-105</v>
+        <v>1.386006933246946e-105</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>1.421217579205244e-105</v>
+        <v>1.313165691446936e-105</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>1.344383897170124e-105</v>
+        <v>1.243350183407814e-105</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>1.271136526129029e-105</v>
+        <v>1.176565531616167e-105</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>1.201450341003269e-105</v>
+        <v>1.112816858558584e-105</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>1.135300216714155e-105</v>
+        <v>1.052109286721652e-105</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>1.072661028182996e-105</v>
+        <v>9.944479385919605e-106</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>1.013507650331103e-105</v>
+        <v>9.398379366560956e-106</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>9.578149580797859e-106</v>
+        <v>8.882844034006466e-106</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>9.055578263503542e-106</v>
+        <v>8.397924613122011e-106</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>8.567111300641182e-106</v>
+        <v>7.943672328773473e-106</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>8.112497441423883e-106</v>
+        <v>7.520138405826731e-106</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>7.69148543506474e-106</v>
+        <v>7.127374069147664e-106</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>7.303824030776856e-106</v>
+        <v>6.765430543602154e-106</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>6.949261977773332e-106</v>
+        <v>6.434359054056082e-106</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>6.627548025267265e-106</v>
+        <v>6.134210825375323e-106</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>6.338430922471762e-106</v>
+        <v>5.865037082425765e-106</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>6.081659418599917e-106</v>
+        <v>5.626889050073281e-106</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>5.856982262864835e-106</v>
+        <v>5.419817953183754e-106</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>5.664048013086719e-106</v>
+        <v>5.243757676040551e-106</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>5.50157183055362e-106</v>
+        <v>5.097548942230916e-106</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>5.36776096480089e-106</v>
+        <v>4.979437627229834e-106</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>5.260817580395947e-106</v>
+        <v>4.887663651179384e-106</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>5.178943841906203e-106</v>
+        <v>4.82046693422163e-106</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>5.120341913899075e-106</v>
+        <v>4.776087396498649e-106</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>5.083213960941977e-106</v>
+        <v>4.75276495815251e-106</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>5.065762147602326e-106</v>
+        <v>4.748739539325287e-106</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>5.066188638447536e-106</v>
+        <v>4.76225106015905e-106</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>5.082695598045021e-106</v>
+        <v>4.791539440795871e-106</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>5.113485190962197e-106</v>
+        <v>4.83484460137782e-106</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>5.15675958176648e-106</v>
+        <v>4.890406462046974e-106</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>5.210720935025284e-106</v>
+        <v>4.956464942945399e-106</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>5.273571415306024e-106</v>
+        <v>5.031259964215168e-106</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>5.343513187176047e-106</v>
+        <v>5.113031445998274e-106</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>5.418748415202977e-106</v>
+        <v>5.200019308437031e-106</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>5.497479263953942e-106</v>
+        <v>5.290463471673179e-106</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>5.57790789799658e-106</v>
+        <v>5.382603855849045e-106</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>5.658236481898231e-106</v>
+        <v>5.474680381106617e-106</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>5.736667180226312e-106</v>
+        <v>5.564932967587967e-106</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>5.811402157548238e-106</v>
+        <v>5.651601535435165e-106</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>5.880643578431422e-106</v>
+        <v>5.732926004790283e-106</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>5.942593607443281e-106</v>
+        <v>5.807146295795392e-106</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>5.995455209317187e-106</v>
+        <v>5.872502918883276e-106</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>6.037640340617451e-106</v>
+        <v>5.927390559923749e-106</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>6.068048239514644e-106</v>
+        <v>5.970563377471597e-106</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>6.085647457875413e-106</v>
+        <v>6.000826663512691e-106</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>6.089406547566408e-106</v>
+        <v>6.016985710032908e-106</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>6.078294060454279e-106</v>
+        <v>6.017845809018119e-106</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>6.051278548405667e-106</v>
+        <v>6.002212252454194e-106</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>6.007328563287227e-106</v>
+        <v>5.968890332327009e-106</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>5.945412656965604e-106</v>
+        <v>5.916685340622437e-106</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>5.864499381307446e-106</v>
+        <v>5.844402569326349e-106</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>5.763557288179401e-106</v>
+        <v>5.75084731042462e-106</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>5.641554929448116e-106</v>
+        <v>5.634824855903119e-106</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>5.497460856980239e-106</v>
+        <v>5.495140497747722e-106</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>5.330243622642421e-106</v>
+        <v>5.330599527944301e-106</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>5.138912799276052e-106</v>
+        <v>5.140052080643675e-106</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>4.924579936294607e-106</v>
+        <v>4.924646070113703e-106</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>4.691423313364668e-106</v>
+        <v>4.688881813257724e-106</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>4.443863853941926e-106</v>
+        <v>4.437524873548205e-106</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>4.186322481482078e-106</v>
+        <v>4.175340814457621e-106</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>3.923220119440815e-106</v>
+        <v>3.907095199458441e-106</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>3.658977691273832e-106</v>
+        <v>3.637553592023135e-106</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>3.398016120436822e-106</v>
+        <v>3.371481555624174e-106</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>3.14475633038548e-106</v>
+        <v>3.113644653734031e-106</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>2.903619244575497e-106</v>
+        <v>2.868808449825174e-106</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>2.678535916094893e-106</v>
+        <v>2.641205571323647e-106</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>2.47010203995917e-106</v>
+        <v>2.431440068256513e-106</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>2.277523091347547e-106</v>
+        <v>2.23860355325494e-106</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>2.099999943030517e-106</v>
+        <v>2.061782631932586e-106</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>1.936733467778577e-106</v>
+        <v>1.900063909903109e-106</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>1.786924538362223e-106</v>
+        <v>1.752533992780167e-106</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>1.649774027552077e-106</v>
+        <v>1.618279486177543e-106</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>1.524482808118372e-106</v>
+        <v>1.496386995708637e-106</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>1.410251752831738e-106</v>
+        <v>1.385943126987242e-106</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>1.306281734462676e-106</v>
+        <v>1.286034485627018e-106</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>1.211773625781678e-106</v>
+        <v>1.195747677241624e-106</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>1.125928299559242e-106</v>
+        <v>1.114169307444717e-106</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>1.047946628565862e-106</v>
+        <v>1.040385981849956e-106</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>9.770294855720346e-107</v>
+        <v>9.734843060710006e-107</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>9.123777433482558e-107</v>
+        <v>9.125508857215078e-107</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>8.531922746650209e-107</v>
+        <v>8.566723264151374e-107</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>7.986739522928259e-107</v>
+        <v>8.049352337655472e-107</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>7.480236490021663e-107</v>
+        <v>7.564262133863962e-107</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>7.004513245695536e-107</v>
+        <v>7.102436330495901e-107</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>6.554832095758456e-107</v>
+        <v>6.658952392864974e-107</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>6.130361798075533e-107</v>
+        <v>6.233944271027759e-107</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>5.730512812409155e-107</v>
+        <v>5.827858772318536e-107</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>5.354695598521716e-107</v>
+        <v>5.441142704071594e-107</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>5.002320616175599e-107</v>
+        <v>5.074242873621216e-107</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>4.672798325133194e-107</v>
+        <v>4.72760608830169e-107</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>4.365539185156891e-107</v>
+        <v>4.4016791554473e-107</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>4.079953656009078e-107</v>
+        <v>4.096908882392331e-107</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>3.815452197452144e-107</v>
+        <v>3.813742076471069e-107</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>3.571445269248477e-107</v>
+        <v>3.552625545017799e-107</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>3.347343331160469e-107</v>
+        <v>3.314006095366808e-107</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>3.142401870545192e-107</v>
+        <v>3.097972744757372e-107</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>2.955103653465712e-107</v>
+        <v>2.902830502336243e-107</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>2.783691081274821e-107</v>
+        <v>2.726329439018736e-107</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>2.626406478862516e-107</v>
+        <v>2.566219449187893e-107</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>2.481492171118789e-107</v>
+        <v>2.420250427226759e-107</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>2.347190482933636e-107</v>
+        <v>2.286172267518375e-107</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>2.221743739197054e-107</v>
+        <v>2.161734864445785e-107</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>2.103436381310295e-107</v>
+        <v>2.044743408419438e-107</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>1.991342340276896e-107</v>
+        <v>1.934039634363567e-107</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>1.885236709019336e-107</v>
+        <v>1.829385853658706e-107</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>1.784918953441144e-107</v>
+        <v>1.730576377701246e-107</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>1.690188539445852e-107</v>
+        <v>1.63740551788758e-107</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>1.60084493293699e-107</v>
+        <v>1.549667585614101e-107</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>1.516687599818169e-107</v>
+        <v>1.467156892277279e-107</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>1.437516005992756e-107</v>
+        <v>1.389667749273348e-107</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>1.363129617364367e-107</v>
+        <v>1.316994467998784e-107</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>1.293327899836532e-107</v>
+        <v>1.248931359849977e-107</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>1.227910319312783e-107</v>
+        <v>1.185272736223323e-107</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>1.16667634169665e-107</v>
+        <v>1.125812908515213e-107</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>1.109425432891664e-107</v>
+        <v>1.070346188122041e-107</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>1.055957058801357e-107</v>
+        <v>1.018666886440199e-107</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>1.006070685329258e-107</v>
+        <v>9.705693148660807e-108</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>9.595657783789e-108</v>
+        <v>9.258477847960782e-108</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>9.162418038538126e-108</v>
+        <v>8.842966076265849e-108</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>8.758982276575273e-108</v>
+        <v>8.457100947539935e-108</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>8.383345156935749e-108</v>
+        <v>8.098825575746973e-108</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>8.033501338654862e-108</v>
+        <v>7.766083074850887e-108</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>7.707445480767923e-108</v>
+        <v>7.456816558815607e-108</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>7.403172242310242e-108</v>
+        <v>7.168969141605062e-108</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>7.118676282317128e-108</v>
+        <v>6.900483937183181e-108</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>6.851952259823886e-108</v>
+        <v>6.649304059513895e-108</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>6.600994833865829e-108</v>
+        <v>6.413372622561131e-108</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>6.363798663478272e-108</v>
+        <v>6.190632740288821e-108</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>6.138358407696512e-108</v>
+        <v>5.979027526660888e-108</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>5.922668725555871e-108</v>
+        <v>5.776500095641266e-108</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>5.714794832844708e-108</v>
+        <v>5.581066887436886e-108</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>5.513822602355251e-108</v>
+        <v>5.39180506203332e-108</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>5.319606046353699e-108</v>
+        <v>5.208590069860167e-108</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>5.132017947896368e-108</v>
+        <v>5.031316868927205e-108</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>4.950931090039578e-108</v>
+        <v>4.859880417244216e-108</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>4.776218255839643e-108</v>
+        <v>4.694175672820972e-108</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>4.607752228352885e-108</v>
+        <v>4.534097593667256e-108</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>4.44540579063562e-108</v>
+        <v>4.379541137792845e-108</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>4.289051725744163e-108</v>
+        <v>4.230401263207518e-108</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>4.138562816734834e-108</v>
+        <v>4.086572927921051e-108</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>3.993811846663948e-108</v>
+        <v>3.947951089943222e-108</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>3.854671598587825e-108</v>
+        <v>3.814430707283812e-108</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>3.721014855562782e-108</v>
+        <v>3.685906737952597e-108</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>3.592714400645133e-108</v>
+        <v>3.562274139959353e-108</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>3.469643016891201e-108</v>
+        <v>3.443427871313863e-108</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>3.351673487357411e-108</v>
+        <v>3.329262890026011e-108</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>3.238678595099854e-108</v>
+        <v>3.219674154105353e-108</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>3.130531123174963e-108</v>
+        <v>3.114556621561782e-108</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>3.027103854639056e-108</v>
+        <v>3.013805250405076e-108</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>2.928269572548451e-108</v>
+        <v>2.917314998645011e-108</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>2.833901059959463e-108</v>
+        <v>2.824980824291365e-108</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>2.743871099928414e-108</v>
+        <v>2.736697685353921e-108</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>2.658052475511617e-108</v>
+        <v>2.652360539842452e-108</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>2.576317969765391e-108</v>
+        <v>2.571864345766738e-108</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>2.498540365746054e-108</v>
+        <v>2.495104061136556e-108</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>2.424592446509924e-108</v>
+        <v>2.421974643961687e-108</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>2.354346995113316e-108</v>
+        <v>2.352371052251906e-108</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>2.287676794612548e-108</v>
+        <v>2.286188244016992e-108</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>2.22445462806394e-108</v>
+        <v>2.223321177266725e-108</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>2.164553278523807e-108</v>
+        <v>2.16366481001088e-108</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>2.107845529048467e-108</v>
+        <v>2.107114100259237e-108</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>2.054204162694237e-108</v>
+        <v>2.053564006021575e-108</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>2.003501962517436e-108</v>
+        <v>2.002909485307671e-108</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>1.955611711574379e-108</v>
+        <v>1.955045496127302e-108</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>1.910406192921386e-108</v>
+        <v>1.909866996490247e-108</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>1.867758189614772e-108</v>
+        <v>1.867268944406286e-108</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>1.827540484710857e-108</v>
+        <v>1.827146297885194e-108</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>1.789625648252131e-108</v>
+        <v>1.789393615670921e-108</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>1.753872992077995e-108</v>
+        <v>1.753880605784908e-108</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>1.720120998519529e-108</v>
+        <v>1.720437934130469e-108</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>1.688206325076836e-108</v>
+        <v>1.68889284621014e-108</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>1.657965629250021e-108</v>
+        <v>1.659072587526456e-108</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>1.629235568539188e-108</v>
+        <v>1.630804403581953e-108</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>1.601852800444441e-108</v>
+        <v>1.603915539879166e-108</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>1.575653982465884e-108</v>
+        <v>1.57823324192063e-108</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>1.550475772103622e-108</v>
+        <v>1.553584755208881e-108</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>1.526154826857758e-108</v>
+        <v>1.529797325246455e-108</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>1.502527804228396e-108</v>
+        <v>1.506698197535887e-108</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>1.479431361715641e-108</v>
+        <v>1.484114617579711e-108</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>1.456702156819597e-108</v>
+        <v>1.461873830880465e-108</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>1.434176847040367e-108</v>
+        <v>1.439803082940682e-108</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>1.411692089878056e-108</v>
+        <v>1.4177296192629e-108</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>1.389084542832791e-108</v>
+        <v>1.395480685349674e-108</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>1.366190863404631e-108</v>
+        <v>1.372883526703496e-108</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>1.342847709093702e-108</v>
+        <v>1.349765388826926e-108</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>1.318891737400109e-108</v>
+        <v>1.325953517222496e-108</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>1.294164623002726e-108</v>
+        <v>1.301280467352616e-108</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>1.268652374779291e-108</v>
+        <v>1.275731551605326e-108</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>1.242503518062272e-108</v>
+        <v>1.249464082588878e-108</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>1.21587524786905e-108</v>
+        <v>1.222644548522183e-108</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>1.188924759217007e-108</v>
+        <v>1.195439437624155e-108</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>1.161809247123525e-108</v>
+        <v>1.168015238113706e-108</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>1.134685906605985e-108</v>
+        <v>1.140538438209747e-108</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>1.10771193268177e-108</v>
+        <v>1.113175526131193e-108</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>1.081044520368261e-108</v>
+        <v>1.086092990096954e-108</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>1.05484086468284e-108</v>
+        <v>1.059457318325944e-108</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>1.029258160642889e-108</v>
+        <v>1.033434999037074e-108</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>1.004453603265789e-108</v>
+        <v>1.008192520449259e-108</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>9.80584387568923e-109</v>
+        <v>9.838963707814087e-109</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>9.578077085696718e-109</v>
+        <v>9.607130382524368e-109</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>9.36280761285418e-109</v>
+        <v>9.388090110812557e-109</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>9.161558613693226e-109</v>
+        <v>9.183457783233184e-109</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>8.97408037058375e-109</v>
+        <v>8.993031888177175e-109</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>8.797889401480589e-109</v>
+        <v>8.8143223057382e-109</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>8.630359706841305e-109</v>
+        <v>8.644692899391266e-109</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>8.468865287123467e-109</v>
+        <v>8.481507532611394e-109</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>8.310780142784641e-109</v>
+        <v>8.322130068873596e-109</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>8.153478274282395e-109</v>
+        <v>8.163924371652891e-109</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>7.994333682074293e-109</v>
+        <v>8.004254304424288e-109</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>7.830720366617905e-109</v>
+        <v>7.84048373066281e-109</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>7.660012328370793e-109</v>
+        <v>7.669976513843464e-109</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>7.47963341204407e-109</v>
+        <v>7.490145888745454e-109</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>7.288792569479107e-109</v>
+        <v>7.300173259211913e-109</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>7.088933065424572e-109</v>
+        <v>7.101453141618473e-109</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>6.881639271287424e-109</v>
+        <v>6.895519820102423e-109</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>6.66849555847464e-109</v>
+        <v>6.683907578801059e-109</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>6.451086298393184e-109</v>
+        <v>6.468150701851669e-109</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>6.230995862450022e-109</v>
+        <v>6.249783473391549e-109</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>6.009808622052124e-109</v>
+        <v>6.03034017755799e-109</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>5.789108948606672e-109</v>
+        <v>5.811355098488499e-109</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>5.570481213520204e-109</v>
+        <v>5.59436252031994e-109</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>5.355509788199901e-109</v>
+        <v>5.380896727189818e-109</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>5.145779044052731e-109</v>
+        <v>5.172492003235429e-109</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>4.942873352485663e-109</v>
+        <v>4.970682632594061e-109</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>4.748094911012995e-109</v>
+        <v>4.776726018403403e-109</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>4.561191179242459e-109</v>
+        <v>4.590353988980509e-109</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>4.381377024361801e-109</v>
+        <v>4.410775770355478e-109</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>4.207866842304914e-109</v>
+        <v>4.237200126144124e-109</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>4.039875029005692e-109</v>
+        <v>4.068835819962263e-109</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>3.876615980398028e-109</v>
+        <v>3.904891615425711e-109</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>3.717304092415813e-109</v>
+        <v>3.744576276150283e-109</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>3.561153760992941e-109</v>
+        <v>3.587098565751794e-109</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>3.407379382063303e-109</v>
+        <v>3.431667247846061e-109</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>3.255195351560793e-109</v>
+        <v>3.277491086048897e-109</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>3.103816103205973e-109</v>
+        <v>3.123778888860114e-109</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>2.952715098335877e-109</v>
+        <v>2.970047144560053e-109</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>2.802243318103346e-109</v>
+        <v>2.816854682427352e-109</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>2.652937389566367e-109</v>
+        <v>2.664980846804365e-109</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>2.505333939782917e-109</v>
+        <v>2.515204982033441e-109</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>2.359969595810979e-109</v>
+        <v>2.368306432456935e-109</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>2.21738951227902e-109</v>
+        <v>2.225064622918665e-109</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>2.078390690701967e-109</v>
+        <v>2.086261355732551e-109</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>1.944057473878936e-109</v>
+        <v>1.952681145754733e-109</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>1.815489869767472e-109</v>
+        <v>1.825108655722652e-109</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>1.693787886325125e-109</v>
+        <v>1.70432854837375e-109</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>1.57987689914834e-109</v>
+        <v>1.590991374643501e-109</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>1.473650510661079e-109</v>
+        <v>1.48495531824226e-109</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>1.374624749148e-109</v>
+        <v>1.385788598592669e-109</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>1.282315078765356e-109</v>
+        <v>1.293059001885653e-109</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>1.196236963669397e-109</v>
+        <v>1.206334314312143e-109</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>1.115905868016374e-109</v>
+        <v>1.125182322063065e-109</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>1.04083725596254e-109</v>
+        <v>1.049170811329347e-109</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>9.70546591664146e-110</v>
+        <v>9.77867568301916e-110</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>9.04549339277443e-110</v>
+        <v>9.108403791717011e-110</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>8.423609629587408e-110</v>
+        <v>8.476570301296886e-110</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>7.834969268641157e-110</v>
+        <v>7.878853073666284e-110</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>7.27507806495083e-110</v>
+        <v>7.31123302907764e-110</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>6.74247215083914e-110</v>
+        <v>6.772306712783798e-110</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>6.237237191076364e-110</v>
+        <v>6.262008125872428e-110</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>5.759471337969467e-110</v>
+        <v>5.780282047861822e-110</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>5.309272743827425e-110</v>
+        <v>5.327073258272307e-110</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>4.88673956095871e-110</v>
+        <v>4.90232653662369e-110</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>4.491969941671796e-110</v>
+        <v>4.505986662435792e-110</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>4.125062038275156e-110</v>
+        <v>4.137998415228428e-110</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>3.786114003077262e-110</v>
+        <v>3.798306574521413e-110</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>3.475202218442401e-110</v>
+        <v>3.486835731576714e-110</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>3.191600505349252e-110</v>
+        <v>3.202766226038017e-110</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>2.933564753243439e-110</v>
+        <v>2.944334423412748e-110</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>2.699285243110526e-110</v>
+        <v>2.709715847503942e-110</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>2.486952255936074e-110</v>
+        <v>2.49708602211464e-110</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>2.294756072705645e-110</v>
+        <v>2.304620471047877e-110</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>2.120886974404801e-110</v>
+        <v>2.130494718106691e-110</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>1.963535242019104e-110</v>
+        <v>1.972884287094121e-110</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>1.820891156534115e-110</v>
+        <v>1.829964701813202e-110</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>1.691144998935397e-110</v>
+        <v>1.699911486066973e-110</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>1.572487050208511e-110</v>
+        <v>1.580900163658471e-110</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>1.46310759133902e-110</v>
+        <v>1.471106258390734e-110</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>1.361196903312485e-110</v>
+        <v>1.3687052940668e-110</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>1.264945267114468e-110</v>
+        <v>1.271872794489706e-110</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>1.172543735912028e-110</v>
+        <v>1.178785074352929e-110</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>1.082907045193871e-110</v>
+        <v>1.088359664542123e-110</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>9.97016356086961e-111</v>
+        <v>1.001630588355698e-110</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>9.162192699920801e-111</v>
+        <v>9.200071877316045e-111</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>8.418633883100109e-111</v>
+        <v>8.448988046077934e-111</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>7.752963124415366e-111</v>
+        <v>7.77714780922216e-111</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>7.178656437874393e-111</v>
+        <v>7.198644586128232e-111</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>6.70918983748502e-111</v>
+        <v>6.72757179617566e-111</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>6.347018940381966e-111</v>
+        <v>6.366562174921681e-111</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>6.038373346265018e-111</v>
+        <v>6.059776098368142e-111</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>5.72361926916217e-111</v>
+        <v>5.745277389188803e-111</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>5.397820484917808e-111</v>
+        <v>5.418017652506658e-111</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>5.071592804513085e-111</v>
+        <v>5.089123268911847e-111</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>4.755553123866137e-111</v>
+        <v>4.769721747374967e-111</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>4.460318338897239e-111</v>
+        <v>4.470940596868781e-111</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>4.196505345524333e-111</v>
+        <v>4.203907326363692e-111</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>3.974731039667493e-111</v>
+        <v>3.97974944483226e-111</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>3.805124006767838e-111</v>
+        <v>3.809085937725371e-111</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>3.685591492699142e-111</v>
+        <v>3.689808562828633e-111</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>3.601242588109971e-111</v>
+        <v>3.606481157993108e-111</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>3.536582633120174e-111</v>
+        <v>3.543038818992157e-111</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>3.476116967849601e-111</v>
+        <v>3.483416641599132e-111</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>3.405888147548791e-111</v>
+        <v>3.413163787398819e-111</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>3.322920642314025e-111</v>
+        <v>3.329360356582217e-111</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>3.229016535866636e-111</v>
+        <v>3.234102912331388e-111</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>3.125997518575577e-111</v>
+        <v>3.129508604679884e-111</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>3.015685280809805e-111</v>
+        <v>3.017694583661257e-111</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>2.899895770702553e-111</v>
+        <v>2.900770483448004e-111</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>2.779993309026435e-111</v>
+        <v>2.780254815058257e-111</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>2.656572491607e-111</v>
+        <v>2.656658616805051e-111</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>2.530152826469459e-111</v>
+        <v>2.530394646557722e-111</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>2.401253821639027e-111</v>
+        <v>2.401875662185602e-111</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>2.270394985140914e-111</v>
+        <v>2.271514421558027e-111</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>2.138112789876552e-111</v>
+        <v>2.139744350245895e-111</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>2.005199083056939e-111</v>
+        <v>2.0073099872022e-111</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>1.872643084747738e-111</v>
+        <v>1.875196323665259e-111</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>1.74143913769229e-111</v>
+        <v>1.744394591648271e-111</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>1.612581584633929e-111</v>
+        <v>1.615896023164434e-111</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>1.487064768315993e-111</v>
+        <v>1.490691850226946e-111</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>1.365883031481821e-111</v>
+        <v>1.369773304849008e-111</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>1.250030716874751e-111</v>
+        <v>1.254131619043818e-111</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>1.140502167238118e-111</v>
+        <v>1.144758024824574e-111</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>1.038287884498956e-111</v>
+        <v>1.04263993755403e-111</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>9.439360889974235e-112</v>
+        <v>9.483252737797343e-112</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>8.571478457182541e-112</v>
+        <v>8.615201248725802e-112</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>7.775285166657048e-112</v>
+        <v>7.818354813722706e-112</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>7.046834638440331e-112</v>
+        <v>7.088823338185098e-112</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>6.382180492574963e-112</v>
+        <v>6.422716727510012e-112</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>5.777376349103515e-112</v>
+        <v>5.816144887094484e-112</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>5.228475828069065e-112</v>
+        <v>5.265217722336061e-112</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>4.731532549512666e-112</v>
+        <v>4.766045138630256e-112</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>4.282600133478822e-112</v>
+        <v>4.314737041376044e-112</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>3.877732200008361e-112</v>
+        <v>3.90740333596871e-112</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>3.512982369145428e-112</v>
+        <v>3.540153927806872e-112</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>3.18440426093148e-112</v>
+        <v>3.209098722286446e-112</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>2.88805149540946e-112</v>
+        <v>2.910347624804841e-112</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>2.619978987493842e-112</v>
+        <v>2.640011801814555e-112</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>2.376857499472689e-112</v>
+        <v>2.394802183877199e-112</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>2.156957130966599e-112</v>
+        <v>2.172987271126919e-112</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>1.958804248739261e-112</v>
+        <v>1.973085138253764e-112</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>1.780925219554361e-112</v>
+        <v>1.793613859947787e-112</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>1.621846410175589e-112</v>
+        <v>1.633091510899038e-112</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>1.480094187366631e-112</v>
+        <v>1.490036165797571e-112</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>1.354194917891177e-112</v>
+        <v>1.362965899333436e-112</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>1.242674968512913e-112</v>
+        <v>1.250398786196684e-112</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>1.144060705995528e-112</v>
+        <v>1.150852901077368e-112</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>1.056878497102709e-112</v>
+        <v>1.062846318665539e-112</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>9.796547085981449e-113</v>
+        <v>9.84897113651249e-113</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>9.109157072455232e-113</v>
+        <v>9.155233607245488e-113</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>8.491878598085316e-113</v>
+        <v>8.532431345754906e-113</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>7.930868164024713e-113</v>
+        <v>7.966625383445335e-113</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>7.419200262783807e-113</v>
+        <v>7.450697508873972e-113</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>6.953179595171022e-113</v>
+        <v>6.980714317461033e-113</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>6.529129090291737e-113</v>
+        <v>6.552760376720132e-113</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>6.143371677251326e-113</v>
+        <v>6.162920254164879e-113</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>5.792230285155172e-113</v>
+        <v>5.807278517308898e-113</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>5.472027843108648e-113</v>
+        <v>5.481919733665797e-113</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>5.179087280217131e-113</v>
+        <v>5.182928470749191e-113</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>4.909731525585999e-113</v>
+        <v>4.906389296072698e-113</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>4.659750933064525e-113</v>
+        <v>4.648134351167632e-113</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>4.422133978079626e-113</v>
+        <v>4.402667764472455e-113</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>4.1889509763167e-113</v>
+        <v>4.16405848203215e-113</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>3.952271710885885e-113</v>
+        <v>3.926375197465713e-113</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>3.704167435536507e-113</v>
+        <v>3.683687855703385e-113</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>3.449937674056822e-113</v>
+        <v>3.441321836143129e-113</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>3.235764111415231e-113</v>
+        <v>3.238989317721276e-113</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>3.060416474331042e-113</v>
+        <v>3.071121260265481e-113</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>2.884299471126322e-113</v>
+        <v>2.896237474147959e-113</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>2.688509218975161e-113</v>
+        <v>2.695500326193331e-113</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>2.489190363929399e-113</v>
+        <v>2.488238275844669e-113</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>2.305729092642602e-113</v>
+        <v>2.297309657914704e-113</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>2.156289703489287e-113</v>
+        <v>2.144152911286872e-113</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>2.038875605477634e-113</v>
+        <v>2.026778502552561e-113</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>1.93495009084586e-113</v>
+        <v>1.92397644674713e-113</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>1.826807866755933e-113</v>
+        <v>1.815494501690658e-113</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>1.711408934294727e-113</v>
+        <v>1.698028892873298e-113</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>1.594860460710756e-113</v>
+        <v>1.57884709316402e-113</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>1.483405867676399e-113</v>
+        <v>1.465373941799633e-113</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>1.381495301981003e-113</v>
+        <v>1.362894286444843e-113</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>1.28867854059884e-113</v>
+        <v>1.270845153995963e-113</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>1.203675950345143e-113</v>
+        <v>1.187673800753088e-113</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>1.125207898035142e-113</v>
+        <v>1.111827483016314e-113</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>1.05199475048407e-113</v>
+        <v>1.041753457085735e-113</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>9.827568745071591e-114</v>
+        <v>9.758989792614467e-114</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>9.162146369196398e-114</v>
+        <v>9.127113058435445e-114</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>8.510884045367447e-114</v>
+        <v>8.506376931321233e-114</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>7.860985441737054e-114</v>
+        <v>7.881253974272787e-114</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>7.203703517360897e-114</v>
+        <v>7.240604095783377e-114</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>6.561666576156551e-114</v>
+        <v>6.607281916293453e-114</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>5.972152969156616e-114</v>
+        <v>6.020015160870023e-114</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>5.4725237186596e-114</v>
+        <v>5.517621127647207e-114</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>5.100139846964019e-114</v>
+        <v>5.138917114759139e-114</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>4.892354252407039e-114</v>
+        <v>4.922712186145995e-114</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>4.870118587190985e-114</v>
+        <v>4.891191613989631e-114</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>5.003585396367333e-114</v>
+        <v>5.015052279172761e-114</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>5.253102017033211e-114</v>
+        <v>5.25505280948196e-114</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>5.57901578628575e-114</v>
+        <v>5.571951832703804e-114</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>5.941674041222078e-114</v>
+        <v>5.926507976624869e-114</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>6.301424118939328e-114</v>
+        <v>6.279479869031737e-114</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>6.618613356534627e-114</v>
+        <v>6.591626137710976e-114</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>6.853589091105108e-114</v>
+        <v>6.823705410449169e-114</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>6.970248718873885e-114</v>
+        <v>6.93997544132989e-114</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>6.972282148867011e-114</v>
+        <v>6.943915592593371e-114</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>6.888367545384263e-114</v>
+        <v>6.863634974335136e-114</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>6.747569850145859e-114</v>
+        <v>6.727623924961257e-114</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>6.578954004872869e-114</v>
+        <v>6.564372782878634e-114</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>6.411455188044714e-114</v>
+        <v>6.402243498021988e-114</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>6.259425466640808e-114</v>
+        <v>6.255169408788786e-114</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>6.109476706847247e-114</v>
+        <v>6.109637544795925e-114</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>5.94511340349227e-114</v>
+        <v>5.949060485175261e-114</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>5.749840051403964e-114</v>
+        <v>5.756850809058498e-114</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>5.507308345447151e-114</v>
+        <v>5.516569406600419e-114</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>5.212063336173473e-114</v>
+        <v>5.222752740804921e-114</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>4.876840614512902e-114</v>
+        <v>4.888265107423431e-114</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>4.516103795868825e-114</v>
+        <v>4.527711868875741e-114</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>4.14431649564463e-114</v>
+        <v>4.155698387581649e-114</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>3.775942329243705e-114</v>
+        <v>3.78683002596095e-114</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>3.425444912069438e-114</v>
+        <v>3.43571214643344e-114</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>3.106015383939992e-114</v>
+        <v>3.11566681539965e-114</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>2.820312194682917e-114</v>
+        <v>2.829393845054171e-114</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>2.565792268996082e-114</v>
+        <v>2.574347291546815e-114</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>2.339875738135283e-114</v>
+        <v>2.347944104714084e-114</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>2.139982733356321e-114</v>
+        <v>2.14760123439248e-114</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>1.963533385914994e-114</v>
+        <v>1.970735630418507e-114</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>1.807947827067099e-114</v>
+        <v>1.814764242628668e-114</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>1.670646188068436e-114</v>
+        <v>1.677104020859463e-114</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>1.549048600174801e-114</v>
+        <v>1.555171914947396e-114</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>1.440575194641995e-114</v>
+        <v>1.446384874728969e-114</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>1.342646102725815e-114</v>
+        <v>1.348159850040685e-114</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>1.25268145568206e-114</v>
+        <v>1.257913790719047e-114</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>1.168198551009298e-114</v>
+        <v>1.173160930763608e-114</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>1.088066189503707e-114</v>
+        <v>1.092768647646605e-114</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>1.012143560958524e-114</v>
+        <v>1.016595909766585e-114</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>9.403126034173086e-115</v>
+        <v>9.445244613795367e-115</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>8.724552549236157e-115</v>
+        <v>8.764360467414443e-115</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>8.084534535210037e-115</v>
+        <v>8.122124101082951e-115</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>7.481891372530295e-115</v>
+        <v>7.517352957360756e-115</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>6.915442441632509e-115</v>
+        <v>6.948864478807723e-115</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>6.384007122952245e-115</v>
+        <v>6.415476107983717e-115</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>5.886404796925079e-115</v>
+        <v>5.916005287448598e-115</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>5.421454843987016e-115</v>
+        <v>5.449269459762672e-115</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>4.987976644572325e-115</v>
+        <v>5.014086067484492e-115</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>4.584789579118261e-115</v>
+        <v>4.609272553175609e-115</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>4.21071302805883e-115</v>
+        <v>4.233646359394321e-115</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>3.864566371831057e-115</v>
+        <v>3.886024928701946e-115</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>3.54516899086947e-115</v>
+        <v>3.565225703657301e-115</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>3.251340265609987e-115</v>
+        <v>3.270066126820597e-115</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>2.981899576488181e-115</v>
+        <v>2.999363640751702e-115</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>2.735666303939627e-115</v>
+        <v>2.751935688010479e-115</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>2.511459828399895e-115</v>
+        <v>2.526599711156793e-115</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>2.308099530304559e-115</v>
+        <v>2.322173152750509e-115</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>2.124404790089191e-115</v>
+        <v>2.137473455351491e-115</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>1.959194988189362e-115</v>
+        <v>1.971318061519603e-115</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>1.811289505040647e-115</v>
+        <v>1.822524413814711e-115</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>1.679507721078617e-115</v>
+        <v>1.689909954796678e-115</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>1.562669016738844e-115</v>
+        <v>1.572292127025369e-115</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>1.459592772456902e-115</v>
+        <v>1.468488373060649e-115</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>1.369098368668362e-115</v>
+        <v>1.377316135462383e-115</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>1.290005185808798e-115</v>
+        <v>1.297592856790435e-115</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>1.22113260431378e-115</v>
+        <v>1.228135979604668e-115</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>1.161300004618883e-115</v>
+        <v>1.167762946464949e-115</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>1.109326767159679e-115</v>
+        <v>1.115291199931142e-115</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>1.06403227237174e-115</v>
+        <v>1.069538182563111e-115</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>1.024235900690637e-115</v>
+        <v>1.02932133692072e-115</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>9.887570325519453e-116</v>
+        <v>9.934581055638345e-116</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>9.564150483912358e-116</v>
+        <v>9.60765931052319e-116</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>9.260293286440807e-116</v>
+        <v>9.300622559460376e-116</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>8.964223441044337e-116</v>
+        <v>9.001676132593127e-116</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>8.668099315919272e-116</v>
+        <v>8.702959142616448e-116</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>8.371825848042723e-116</v>
+        <v>8.404357511841988e-116</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>8.076213096573926e-116</v>
+        <v>8.106662312903193e-116</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>7.782071120672126e-116</v>
+        <v>7.810664618433515e-116</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>7.490209979496563e-116</v>
+        <v>7.517155501066409e-116</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>7.20143973220648e-116</v>
+        <v>7.226926033435322e-116</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>6.916570437961119e-116</v>
+        <v>6.940767288173709e-116</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>6.636412155919718e-116</v>
+        <v>6.659470337915019e-116</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>6.361774945241521e-116</v>
+        <v>6.383826255292705e-116</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>6.093468865086026e-116</v>
+        <v>6.114626112940474e-116</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>5.832303974611705e-116</v>
+        <v>5.852660983491007e-116</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>5.579090332978811e-116</v>
+        <v>5.598721939578772e-116</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>5.334637999345607e-116</v>
+        <v>5.353600053836232e-116</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>5.099757032872277e-116</v>
+        <v>5.118086398897793e-116</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>4.875257492717366e-116</v>
+        <v>4.892972047396201e-116</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>4.661949438040351e-116</v>
+        <v>4.679048071965145e-116</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>4.460642928000471e-116</v>
+        <v>4.477105545238077e-116</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>4.272148021756968e-116</v>
+        <v>4.287935539848446e-116</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>4.097274778469085e-116</v>
+        <v>4.112329128429705e-116</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>3.936833257296063e-116</v>
+        <v>3.951077383615304e-116</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>3.791633517397142e-116</v>
+        <v>3.804971378038696e-116</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>3.662485617931565e-116</v>
+        <v>3.674802184333332e-116</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>3.550199618058575e-116</v>
+        <v>3.561360875132664e-116</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>3.455585576937411e-116</v>
+        <v>3.465438523070142e-116</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>3.379453553727316e-116</v>
+        <v>3.387826200779219e-116</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>3.32261360758753e-116</v>
+        <v>3.329314980893345e-116</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>3.285875797677297e-116</v>
+        <v>3.290695936045973e-116</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>3.269797817398017e-116</v>
+        <v>3.272514861134712e-116</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>3.272159243113749e-116</v>
+        <v>3.272617461066146e-116</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>3.2890185541076e-116</v>
+        <v>3.287176682925858e-116</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>3.316408581824174e-116</v>
+        <v>3.312340546313981e-116</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>3.350362157708078e-116</v>
+        <v>3.344257070830651e-116</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>3.386912113203918e-116</v>
+        <v>3.379074276076001e-116</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>3.422091279756299e-116</v>
+        <v>3.412940181650167e-116</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>3.451932488809827e-116</v>
+        <v>3.44200280715328e-116</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>3.472468571809108e-116</v>
+        <v>3.462410172185475e-116</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>3.479732360198748e-116</v>
+        <v>3.470310296346887e-116</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>3.470174724240644e-116</v>
+        <v>3.462247589273748e-116</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>3.443566469293799e-116</v>
+        <v>3.437914467769433e-116</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>3.401261585625849e-116</v>
+        <v>3.398504545887726e-116</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>3.34462381368093e-116</v>
+        <v>3.345220682931069e-116</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>3.275016893903178e-116</v>
+        <v>3.279265738201904e-116</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>3.193804566736729e-116</v>
+        <v>3.201842571002671e-116</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>3.102350572625717e-116</v>
+        <v>3.114154040635812e-116</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>3.002018652014278e-116</v>
+        <v>3.017403006403765e-116</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>2.894172545346549e-116</v>
+        <v>2.912792327608974e-116</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>2.780175993066774e-116</v>
+        <v>2.801524863553989e-116</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>2.661392735618754e-116</v>
+        <v>2.684803473540919e-116</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>2.539186513447081e-116</v>
+        <v>2.563831016872657e-116</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>2.414921066995419e-116</v>
+        <v>2.439810352851176e-116</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>2.289960136708383e-116</v>
+        <v>2.313944340779396e-116</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>2.165574158166267e-116</v>
+        <v>2.187392991271967e-116</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>2.042455815554547e-116</v>
+        <v>2.061050992344278e-116</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>1.921076928949228e-116</v>
+        <v>1.935711603888426e-116</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>1.80190887488942e-116</v>
+        <v>1.812167882109656e-116</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>1.685423029914232e-116</v>
+        <v>1.691212883213216e-116</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>1.572090770562772e-116</v>
+        <v>1.57363966340435e-116</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>1.46238347337415e-116</v>
+        <v>1.460241278888306e-116</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>1.356772514887475e-116</v>
+        <v>1.351810785870329e-116</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>1.255729271641855e-116</v>
+        <v>1.249141240555665e-116</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>1.159716716607328e-116</v>
+        <v>1.153001481285821e-116</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>1.069015535297644e-116</v>
+        <v>1.063635020467589e-116</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>9.837300324293781e-117</v>
+        <v>9.807770667054617e-117</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>9.039572908836789e-117</v>
+        <v>9.041420163246745e-117</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>8.297943935416951e-117</v>
+        <v>8.33444265650461e-117</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>7.613384232845751e-117</v>
+        <v>7.683982110080557e-117</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>6.986864629934683e-117</v>
+        <v>7.08718248722693e-117</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>6.419355955495234e-117</v>
+        <v>6.541187751196067e-117</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>5.911829038338888e-117</v>
+        <v>6.043141865240318e-117</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>5.465247038227344e-117</v>
+        <v>5.590188233568048e-117</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>5.078072977738637e-117</v>
+        <v>5.179288010086845e-117</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>4.742685061435168e-117</v>
+        <v>4.806958789078529e-117</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>4.45055345416557e-117</v>
+        <v>4.469651972252756e-117</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>4.193148320778476e-117</v>
+        <v>4.163818961319182e-117</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>3.961939826122515e-117</v>
+        <v>3.885911157987463e-117</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>3.748398135046325e-117</v>
+        <v>3.632379963967255e-117</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>3.543993412398534e-117</v>
+        <v>3.399676780968212e-117</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>3.34117956330581e-117</v>
+        <v>3.184518369524044e-117</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>3.139970729470565e-117</v>
+        <v>2.985660824667731e-117</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>2.943886382939583e-117</v>
+        <v>2.802805786063159e-117</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>2.756465193695204e-117</v>
+        <v>2.635660071917494e-117</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>2.581245831719768e-117</v>
+        <v>2.483930500437901e-117</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>2.421766966995618e-117</v>
+        <v>2.347323889831545e-117</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>2.281485284206582e-117</v>
+        <v>2.225532035261998e-117</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>2.161232870186679e-117</v>
+        <v>2.117765798739066e-117</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>2.058726220902843e-117</v>
+        <v>2.0226651392144e-117</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>1.971500742225864e-117</v>
+        <v>1.938836832562614e-117</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>1.897091840027275e-117</v>
+        <v>1.864887654659018e-117</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>1.833034920178032e-117</v>
+        <v>1.799424381378368e-117</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>1.776865388549403e-117</v>
+        <v>1.741053788595721e-117</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>1.726118651012579e-117</v>
+        <v>1.688382652186063e-117</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>1.678379866799481e-117</v>
+        <v>1.640039648812427e-117</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>1.632420281383359e-117</v>
+        <v>1.595175555012077e-117</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>1.588220900473006e-117</v>
+        <v>1.553473668183594e-117</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>1.545817218516526e-117</v>
+        <v>1.514641270966215e-117</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>1.505244729962022e-117</v>
+        <v>1.478385645999181e-117</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>1.466538929257599e-117</v>
+        <v>1.444414075921733e-117</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>1.429735310851362e-117</v>
+        <v>1.412433843373108e-117</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>1.394869369191413e-117</v>
+        <v>1.382152230992548e-117</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>1.361976598725857e-117</v>
+        <v>1.35327652141929e-117</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>1.331053894671599e-117</v>
+        <v>1.325514085489854e-117</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>1.301815639225572e-117</v>
+        <v>1.298572939568637e-117</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>1.273850663181151e-117</v>
+        <v>1.272161386898602e-117</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>1.246747227717126e-117</v>
+        <v>1.245987732024256e-117</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>1.220093594012285e-117</v>
+        <v>1.219760279490105e-117</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>1.193478023245417e-117</v>
+        <v>1.193187333840652e-117</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>1.166488776595313e-117</v>
+        <v>1.165977199620405e-117</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>1.138714115240759e-117</v>
+        <v>1.137838181373869e-117</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>1.109742300360546e-117</v>
+        <v>1.108478583645548e-117</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>1.079163183721618e-117</v>
+        <v>1.077607810114992e-117</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>1.046721905623439e-117</v>
+        <v>1.045042572608903e-117</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>1.012447025610526e-117</v>
+        <v>1.01079543253515e-117</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>9.763972654916778e-118</v>
+        <v>9.748997941587138e-118</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>9.386313470756943e-118</v>
+        <v>9.373890617445739e-118</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>8.992079921713737e-118</v>
+        <v>8.982966395577103e-118</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>8.581859225875163e-118</v>
+        <v>8.576559318631033e-118</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>8.156238601329204e-118</v>
+        <v>8.155003429257327e-118</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>7.715805266163862e-118</v>
+        <v>7.718632770105789e-118</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>7.261147895756415e-118</v>
+        <v>7.267782896160605e-118</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>6.794142159376178e-118</v>
+        <v>6.80412496895672e-118</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>6.320311754489795e-118</v>
+        <v>6.333115972469909e-118</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>5.845822291917192e-118</v>
+        <v>5.860879050542801e-118</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>5.376839382481507e-118</v>
+        <v>5.393537347021218e-118</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>4.919529203230903e-118</v>
+        <v>4.937214581217965e-118</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>4.482021810329224e-118</v>
+        <v>4.500030405822917e-118</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>4.07880803670791e-118</v>
+        <v>4.096569070330201e-118</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>3.72566418313594e-118</v>
+        <v>3.742721273363949e-118</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>3.438366550381859e-118</v>
+        <v>3.454377713547865e-118</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>3.232691294309165e-118</v>
+        <v>3.247428945021814e-118</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>3.114717609681481e-118</v>
+        <v>3.128096748085196e-118</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>3.054564773180691e-118</v>
+        <v>3.066747513738314e-118</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>3.014018216366797e-118</v>
+        <v>3.025438012794797e-118</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>2.955644740250893e-118</v>
+        <v>2.966994084604516e-118</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>2.862307530228668e-118</v>
+        <v>2.874218431713052e-118</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>2.738548489801561e-118</v>
+        <v>2.751251191829343e-118</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>2.589967734965151e-118</v>
+        <v>2.603274055966941e-118</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>2.422165381715023e-118</v>
+        <v>2.435468715139397e-118</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>2.24074171480552e-118</v>
+        <v>2.253017065597458e-118</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>2.052453860324334e-118</v>
+        <v>2.062507904552859e-118</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>1.867978029156267e-118</v>
+        <v>1.875296252560461e-118</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>1.698819543998044e-118</v>
+        <v>1.703745460506467e-118</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>1.556354424507659e-118</v>
+        <v>1.560081031179811e-118</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>1.443281815583628e-118</v>
+        <v>1.447278176830463e-118</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>1.348295043471329e-118</v>
+        <v>1.3533807092481e-118</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>1.258815137752225e-118</v>
+        <v>1.265076063171994e-118</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>1.162613885785903e-118</v>
+        <v>1.169423605564345e-118</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>1.056029724941289e-118</v>
+        <v>1.062566502463814e-118</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>9.442546234937906e-119</v>
+        <v>9.500359182262655e-119</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>8.328886794364468e-119</v>
+        <v>8.377957843690866e-119</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>7.265983749592623e-119</v>
+        <v>7.308037988962414e-119</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>6.266399289094112e-119</v>
+        <v>6.303421422658299e-119</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>5.334911193545779e-119</v>
+        <v>5.368540061377877e-119</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>4.476297243624474e-119</v>
+        <v>4.507825821720498e-119</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>3.695335220007043e-119</v>
+        <v>3.725710620285517e-119</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>2.996802903370337e-119</v>
+        <v>3.026626373672286e-119</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>2.385478074391201e-119</v>
+        <v>2.415004998480158e-119</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>1.866138513746487e-119</v>
+        <v>1.895278411308488e-119</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>1.443562002113402e-119</v>
+        <v>1.47187852875699e-119</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>1.122357524522011e-119</v>
+        <v>1.149071508710427e-119</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>8.953610584091169e-120</v>
+        <v>9.195623186885728e-120</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>7.361457009926185e-120</v>
+        <v>7.571396192755122e-120</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>6.166527785782385e-120</v>
+        <v>6.339924949810341e-120</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>5.185015823864222e-120</v>
+        <v>5.319971203730439e-120</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>4.387230655809663e-120</v>
+        <v>4.48455863284917e-120</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>3.756700428167905e-120</v>
+        <v>3.819699135465615e-120</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>3.273036821130077e-120</v>
+        <v>3.30569248255504e-120</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>2.914098626820408e-120</v>
+        <v>2.920281875239397e-120</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>2.65773642211134e-120</v>
+        <v>2.641198532777419e-120</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>2.481800783875312e-120</v>
+        <v>2.446173674427839e-120</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>2.364142288984766e-120</v>
+        <v>2.312938519449388e-120</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>2.282627387523757e-120</v>
+        <v>2.219240051776359e-120</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>2.220503548314185e-120</v>
+        <v>2.148169480357733e-120</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>2.174208879030924e-120</v>
+        <v>2.095918459532507e-120</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>2.142165638800862e-120</v>
+        <v>2.060649228084635e-120</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>2.122796086750888e-120</v>
+        <v>2.040524024798069e-120</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>2.114522482007892e-120</v>
+        <v>2.03370508845676e-120</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>2.115767083698762e-120</v>
+        <v>2.038354657844662e-120</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>2.124952150950388e-120</v>
+        <v>2.052634971745728e-120</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>2.140499942889661e-120</v>
+        <v>2.074708268943909e-120</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>2.160832718643467e-120</v>
+        <v>2.102736788223158e-120</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>2.184372737338697e-120</v>
+        <v>2.134882768367427e-120</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>2.209542258102239e-120</v>
+        <v>2.169308448160669e-120</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>2.234763540060984e-120</v>
+        <v>2.204176066386836e-120</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>2.258458842341821e-120</v>
+        <v>2.237647861829881e-120</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>2.279050424071638e-120</v>
+        <v>2.267886073273757e-120</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>2.294960544377326e-120</v>
+        <v>2.293052939502414e-120</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>2.304611462385772e-120</v>
+        <v>2.311310699299807e-120</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>2.306425437223866e-120</v>
+        <v>2.320821591449888e-120</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>2.298824728018498e-120</v>
+        <v>2.319747854736608e-120</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>2.280231593896557e-120</v>
+        <v>2.306251727943921e-120</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>2.249147163426973e-120</v>
+        <v>2.278586992107822e-120</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>2.205551002080656e-120</v>
+        <v>2.236723421683417e-120</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>2.150735705483989e-120</v>
+        <v>2.182154800099654e-120</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>2.086039511301571e-120</v>
+        <v>2.116427886625787e-120</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>2.012800657198079e-120</v>
+        <v>2.041089440531148e-120</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>1.932357380837889e-120</v>
+        <v>1.957686221084758e-120</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>1.846047919885911e-120</v>
+        <v>1.86776498755619e-120</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>1.755210512006414e-120</v>
+        <v>1.772872499214354e-120</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>1.661183394864348e-120</v>
+        <v>1.674555515328866e-120</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>1.565304806124045e-120</v>
+        <v>1.5743607951687e-120</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>1.468912983450195e-120</v>
+        <v>1.473835098003203e-120</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>1.373346164507399e-120</v>
+        <v>1.374525183101627e-120</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>1.279942586960258e-120</v>
+        <v>1.277977809733228e-120</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>1.190040488473372e-120</v>
+        <v>1.185739737167256e-120</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>1.104978106711341e-120</v>
+        <v>1.099357724672967e-120</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>1.026093679338768e-120</v>
+        <v>1.020378531519614e-120</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>9.547254440202509e-121</v>
+        <v>9.503489169764489e-121</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>8.922116384203923e-121</v>
+        <v>8.908156403127267e-121</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>8.398905002037922e-121</v>
+        <v>8.433254607977002e-121</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>7.991002670350513e-121</v>
+        <v>8.094251377006228e-121</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>7.700855648658435e-121</v>
+        <v>7.892871650825726e-121</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>7.392690622118943e-121</v>
+        <v>7.657149516258075e-121</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>6.835996792273935e-121</v>
+        <v>7.096069102902707e-121</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>5.798414518021368e-121</v>
+        <v>5.91629122936035e-121</v>
       </c>
     </row>
   </sheetData>
